--- a/Data_raw.xlsx
+++ b/Data_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lifudu/Desktop/FYP/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E56320-564C-4C44-911D-6CA75F42F834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F111C98-A0C3-7A4F-8435-7E8DCF8D464E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="566">
   <si>
     <t>All ingredients in cryoprotective solution</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Source (DOI link)</t>
   </si>
   <si>
-    <t>1.67% Ethylene glycol + 0.0125% Taurine + 1% Ectoine</t>
+    <t>1.67% Ethylene glycol + 0.0125% Taurine + 1% Ectoine+10% DMSO</t>
   </si>
   <si>
     <t>slow_freeze</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve"> https://doi.org/10.1002/term.2175</t>
   </si>
   <si>
-    <t>9.46% trehalose</t>
+    <t>8.56% trehalose</t>
   </si>
   <si>
     <t>Not explicitly stated; similar cell numbers from day 1 to 14 for fresh and cryopreserved ASCs suggest comparable proliferation rates. It takes around 14 days for them to double.</t>
@@ -118,7 +118,7 @@
     <t>10.1016/j.transproceed.2008.03.04</t>
   </si>
   <si>
-    <t>0.00038% w/w S1P + 0.90% w/w glucose + 1.71% w/w sucrose + 8.37% v/v ethylene glycol</t>
+    <t>0.00038% S1P + 0.90% glucose + 1.71% sucrose + 8.37% ethylene glycol</t>
   </si>
   <si>
     <t>High-standard preparation, with usage of fluorescently-labeled antibodies to ensure the pluripotent property of DP-MSCs.  Different assements method were utilized to determine the desire result, such as WST-1 assay in cell morphology, Annexin V-FITC and PI in apoptosis,  trypan blue for viablity test</t>
@@ -133,7 +133,7 @@
     <t>10% DMSO + 10% FBS</t>
   </si>
   <si>
-    <t>0.90% w/w glucose + 1.71% w/w sucrose + 8.37% v/v ethylene glycol</t>
+    <t>0.90% glucose + 1.71% sucrose + 8.37% ethylene glycol</t>
   </si>
   <si>
     <t xml:space="preserve">0
@@ -259,7 +259,7 @@
     <t>55.13¬±0.03</t>
   </si>
   <si>
-    <t>10% v/v FBS + 0.90% w/w glucose + 1.71% w/w sucrose + 8.37% v/v ethylene glycol</t>
+    <t>10% FBS + 0.90% glucose + 1.71% sucrose + 8.37% ethylene glycol</t>
   </si>
   <si>
     <t>55.79¬±0.12 h</t>
@@ -268,9 +268,6 @@
     <t>10% PVP</t>
   </si>
   <si>
-    <t>0.90% w/w glucose + 1.71% w/w sucrose + 8.37% v/v ethylene glycol + 0% v/v FBS</t>
-  </si>
-  <si>
     <t>3.5% DMSO + 1% human serum albumin + 2.5% HES</t>
   </si>
   <si>
@@ -358,7 +355,7 @@
     <t>doi:10.1186/1472-6750-12-59</t>
   </si>
   <si>
-    <t>6.85% w/w sucrose + 10% v/v PL</t>
+    <t>6.85% sucrose + 10% PL</t>
   </si>
   <si>
     <t>42.0 ¬± 4.8 h</t>
@@ -373,7 +370,7 @@
     <t>https://doi.org/10.1007/s10616-016-0055-2</t>
   </si>
   <si>
-    <t>6.85% w/w sucrose + 10% v/v FS</t>
+    <t>6.85% sucrose + 10% FS</t>
   </si>
   <si>
     <t>89.2 ¬± 4.3 h</t>
@@ -418,7 +415,7 @@
     <t>20% DMSO + 80% HAS</t>
   </si>
   <si>
-    <t>11.29% Trehalose</t>
+    <t>10.27% Trehalose</t>
   </si>
   <si>
     <t>Trypan blue staining was used to evaluate cell viability. Colorimetric asessment at 450 nm was used to obtain OD value to represent cell proliferation. FACS cytometer was used for asessment of cell markers.</t>
@@ -430,13 +427,13 @@
     <t>https://doi.org/10.1186/s13287-020-01969-0</t>
   </si>
   <si>
-    <t>22.59% Trehalose</t>
-  </si>
-  <si>
-    <t>37.63% Trehalose</t>
-  </si>
-  <si>
-    <t>47.06% Trehalose</t>
+    <t>20.54% Trehalose</t>
+  </si>
+  <si>
+    <t>34.23% Trehalose</t>
+  </si>
+  <si>
+    <t>42.79% Trehalose</t>
   </si>
   <si>
     <t>10% Glycerol</t>
@@ -448,7 +445,7 @@
     <t>30% Glycerol</t>
   </si>
   <si>
-    <t>37.63% w/w Trehalose + 20% v/v Glycerol</t>
+    <t>32.23% Trehalose + 20% Glycerol</t>
   </si>
   <si>
     <t>The study used two types of culture, feeder dependent and independent. For both types, no significant difference was observed in viability across all solutions except for 10% PROH. PI viability, colony count (4-5 days), Annexin V/PI apoptosis, caspase-9, DHE ROS, F-actin, ICC (Oct4/Nanog/SSEA4/Tra1-60/Tra1-81)</t>
@@ -460,13 +457,13 @@
     <t>10.1002/btpr.358</t>
   </si>
   <si>
-    <t>10% v/v DMSO + 0.00078% w/w ROCK inhibitor</t>
+    <t>10% DMSO + 0.0003383% ROCK inhibitor</t>
   </si>
   <si>
     <t>7.5% DMSO</t>
   </si>
   <si>
-    <t>7.5% v/v DMSO + 0.00078% w/w ROCK inhibitor</t>
+    <t>7.5% DMSO + 0.0003383% ROCK inhibitor</t>
   </si>
   <si>
     <t>7.5% DMSO + 2.5% PEG</t>
@@ -475,7 +472,7 @@
     <t>Optimal reduced DMSO.</t>
   </si>
   <si>
-    <t>7.5% DMSO + 2.5% PEG + 0.00078% ROCK inhibitor</t>
+    <t>7.5% DMSO + 2.5% PEG + 0.0003383% ROCK inhibitor</t>
   </si>
   <si>
     <t>10% PROH</t>
@@ -536,16 +533,16 @@
     <t>20% FBS + 10% Glycerol</t>
   </si>
   <si>
-    <t>20% FBS + 1.71% sucrose</t>
-  </si>
-  <si>
-    <t>20% FBS + 3.42% sucrose</t>
-  </si>
-  <si>
-    <t>20% FBS + 2.84% trehalose</t>
-  </si>
-  <si>
-    <t>20% FBS + 5.66% trehalose</t>
+    <t>20% FBS + 1.03% sucrose</t>
+  </si>
+  <si>
+    <t>20% FBS + 2.05% sucrose</t>
+  </si>
+  <si>
+    <t>20% FBS + 2.05% trehalose</t>
+  </si>
+  <si>
+    <t>20% FBS + 3.42% trehalose</t>
   </si>
   <si>
     <t>Not reported</t>
@@ -560,9 +557,6 @@
     <t>10.1002/term.1945</t>
   </si>
   <si>
-    <t>0.90% glucose + 1.71% sucrose + 8.37% ethylene glycol</t>
-  </si>
-  <si>
     <t>80% HS + 10% DMSO</t>
   </si>
   <si>
@@ -614,7 +608,7 @@
     <t>10% PVP + 80% FCS</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37% ethylene glycol </t>
+    <t xml:space="preserve">2.80% ethylene glycol </t>
   </si>
   <si>
     <t xml:space="preserve">Not mentioned </t>
@@ -629,19 +623,19 @@
     <t>https://doi.org/10.1016/j.cryobiol.2009.06.005</t>
   </si>
   <si>
-    <t xml:space="preserve">16.74% ethylene glycol </t>
-  </si>
-  <si>
-    <t>25.11% ethylene glycol</t>
-  </si>
-  <si>
-    <t>7.61% propylene glycol</t>
-  </si>
-  <si>
-    <t>15.22%  propylene glycol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.83%  propylene glycol </t>
+    <t xml:space="preserve">5.58% ethylene glycol </t>
+  </si>
+  <si>
+    <t>8.37% ethylene glycol</t>
+  </si>
+  <si>
+    <t>3.67% propylene glycol</t>
+  </si>
+  <si>
+    <t>7.35%  propylene glycol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.02%  propylene glycol </t>
   </si>
   <si>
     <t xml:space="preserve">7.81% DMSO </t>
@@ -728,7 +722,7 @@
     <t>7.5% 1,2-propanediol + 2.5% PEG + 2% BSA</t>
   </si>
   <si>
-    <t>5.13% Sucrose + 2.27% Mannitol + 0.16% Creatine</t>
+    <t>5.14% Sucrose + 2.28% Mannitol + 0.16% Creatine</t>
   </si>
   <si>
     <t>Acridine Orange/Propidium Iodide (AO/PI) and flow cytometry were used to calculate the viability (recovery rate) and Cell surface phenotype respectively.</t>
@@ -740,25 +734,25 @@
     <t>https://doi.org/10.1089/TEN.TEC.2016.0284</t>
   </si>
   <si>
-    <t>2.70% Glucose + 2.27% Mannitol + 0.16% Creatine</t>
-  </si>
-  <si>
-    <t>5.13% Sucrose + 2.5% Glycerol + 0.16% Creatine</t>
+    <t>2.70% Glucose + 2.28% Mannitol + 0.16% Creatine</t>
+  </si>
+  <si>
+    <t>5.14% Sucrose + 2.5% Glycerol + 0.16% Creatine</t>
   </si>
   <si>
     <t>2.70% Glucose + 2.5% Glycerol + 0.16% Creatine</t>
   </si>
   <si>
-    <t>5.13% Sucrose + 19.06% Glycerol + 0.16% Creatine</t>
-  </si>
-  <si>
-    <t>2.70% Glucose + 19.06% Glycerol + 0.16% Creatine</t>
-  </si>
-  <si>
-    <t>5.13% Sucrose + 38.12% Glycerol + 0.33% Creatine</t>
-  </si>
-  <si>
-    <t>10.26% Sucrose + 38.12% Glycerol + 0.16% Creatine</t>
+    <t>5.14% Sucrose + 25% Glycerol + 0.16% Creatine</t>
+  </si>
+  <si>
+    <t>2.70% Glucose + 25% Glycerol + 0.16% Creatine</t>
+  </si>
+  <si>
+    <t>5.14% Sucrose + 50% Glycerol + 0.33% Creatine</t>
+  </si>
+  <si>
+    <t>10.27% Sucrose + 50% Glycerol + 0.16% Creatine</t>
   </si>
   <si>
     <t>1.28% Sucrose + 1.15% Mannitol + 0.17% Creatine</t>
@@ -767,25 +761,28 @@
     <t>7.70% Sucrose + 3.42% Mannitol + 0.04% Creatine</t>
   </si>
   <si>
-    <t>7.70% Sucrose + 2.27% Mannitol + 0% Creatine</t>
+    <t>7.68% Sucrose + 2.28% Mannitol + 0% Creatine</t>
   </si>
   <si>
     <t>0% Sucrose + 1.15% Mannitol + 0.33% Creatine</t>
   </si>
   <si>
-    <t>1.28% Sucrose + 2.27% Mannitol + 0.04% Creatine</t>
-  </si>
-  <si>
-    <t>0.51% Sucrose + 0.46% Mannitol + 0.33% Creatine</t>
-  </si>
-  <si>
-    <t>5.13% Sucrose + 1.15% Mannitol + 0.08% Creatine</t>
+    <t>2.57% Sucrose + 2.28% Mannitol + 0.04% Creatine</t>
+  </si>
+  <si>
+    <t>1.03% Sucrose + 0.46% Mannitol + 0.33% Creatine</t>
+  </si>
+  <si>
+    <t>7.68% Sucrose + 3.42% Mannitol + 0.04% Creatine</t>
+  </si>
+  <si>
+    <t>5.14% Sucrose + 1.15% Mannitol + 0.08% Creatine</t>
   </si>
   <si>
     <t>0% Sucrose + 0.46% Mannitol + 0.33% Creatine</t>
   </si>
   <si>
-    <t>1.28% Sucrose + 1.15% Mannitol + 0.25% Creatine</t>
+    <t>2.57% Sucrose + 1.15% Mannitol + 0.25% Creatine</t>
   </si>
   <si>
     <t>0.51% Sucrose + 0% Mannitol + 0.33% Creatine</t>
@@ -794,118 +791,118 @@
     <t>0.85% Sucrose + 1.15% Mannitol + 0.17% Creatine</t>
   </si>
   <si>
-    <t>5.13% Sucrose + 1.15% Mannitol + 0% Creatine</t>
-  </si>
-  <si>
-    <t>10.26% Sucrose + 2.29% Mannitol + 0.04% Creatine</t>
-  </si>
-  <si>
-    <t>5.13% Sucrose + 3.42% Mannitol + 0.04% Creatine</t>
-  </si>
-  <si>
-    <t>0.51% Sucrose + 0.46% Mannitol + 0.25% Creatine</t>
-  </si>
-  <si>
-    <t>5.13% Sucrose + 0.46% Mannitol + 0.08% Creatine</t>
-  </si>
-  <si>
-    <t>0% Sucrose + 2.27% Mannitol + 0.17% Creatine</t>
-  </si>
-  <si>
-    <t>0.51% Sucrose + 1.15% Mannitol + 0.33% Creatine</t>
-  </si>
-  <si>
-    <t>0.51% Sucrose + 2.27% Mannitol + 0.25% Creatine</t>
-  </si>
-  <si>
-    <t>10.26% Sucrose + 2.29% Mannitol + 0% Creatine</t>
-  </si>
-  <si>
-    <t>5.13% Sucrose + 3.42% Mannitol + 0.25% Creatine</t>
-  </si>
-  <si>
-    <t>7.70% Sucrose + 2.29% Mannitol + 0.04% Creatine</t>
-  </si>
-  <si>
-    <t>7.70% Sucrose + 38.12% Glycerol + 0% Creatine</t>
-  </si>
-  <si>
-    <t>10.26% Sucrose + 19.06% Glycerol + 0% Creatine</t>
-  </si>
-  <si>
-    <t>10.26% Sucrose + 19.06% Glycerol + 0.33% Creatine</t>
-  </si>
-  <si>
-    <t>10.26% Sucrose + 0% Glycerol + 0.33% Creatine</t>
-  </si>
-  <si>
-    <t>10.26% Sucrose + 9.53% Glycerol + 0.25% Creatine</t>
-  </si>
-  <si>
-    <t>0% Sucrose + 38.12% Glycerol + 0.25% Creatine</t>
-  </si>
-  <si>
-    <t>1.28% Sucrose + 3.77% Glycerol + 0.25% Creatine</t>
-  </si>
-  <si>
-    <t>0.51% Sucrose + 9.53% Glycerol + 0.33% Creatine</t>
-  </si>
-  <si>
-    <t>0.85% Sucrose + 3.77% Glycerol + 0.33% Creatine</t>
-  </si>
-  <si>
-    <t>1.28% Sucrose + 38.12% Glycerol + 0.04% Creatine</t>
-  </si>
-  <si>
-    <t>0% Sucrose + 38.12% Glycerol + 0.33% Creatine</t>
-  </si>
-  <si>
-    <t>5.13% Sucrose + 29.18% Glycerol + 0% Creatine</t>
-  </si>
-  <si>
-    <t>0.51% Sucrose + 3.77% Glycerol + 0.33% Creatine</t>
-  </si>
-  <si>
-    <t>7.70% Sucrose + 29.18% Glycerol + 0.08% Creatine</t>
-  </si>
-  <si>
-    <t>1.28% Sucrose + 38.12% Glycerol + 0.17% Creatine</t>
-  </si>
-  <si>
-    <t>0% Sucrose + 41.94% Glycerol + 0.32% Creatine</t>
-  </si>
-  <si>
-    <t>0.85% Sucrose + 29.18% Glycerol + 0% Creatine</t>
-  </si>
-  <si>
-    <t>7.70% Sucrose + 19.06% Glycerol + 0.17% Creatine</t>
-  </si>
-  <si>
-    <t>10.26% Sucrose + 29.18% Glycerol + 0.04% Creatine</t>
-  </si>
-  <si>
-    <t>5.13% Sucrose + 38.12% Glycerol + 0.04% Creatine</t>
-  </si>
-  <si>
-    <t>0% Sucrose + 9.53% Glycerol + 0.33% Creatine</t>
-  </si>
-  <si>
-    <t>5.13% Sucrose + 38.12% Glycerol + 0% Creatine</t>
-  </si>
-  <si>
-    <t>0% Sucrose + 3.77% Glycerol + 0.33% Creatine</t>
-  </si>
-  <si>
-    <t>5.13% Sucrose + 19.06% Glycerol + 0.08% Creatine</t>
-  </si>
-  <si>
-    <t>0.51% Sucrose + 38.12% Glycerol + 0.25% Creatine</t>
-  </si>
-  <si>
-    <t>0.51% Sucrose + 9.53% Glycerol + 0.17% Creatine</t>
-  </si>
-  <si>
-    <t>5.13% Sucrose + 3.77% Glycerol + 0.17% Creatine</t>
+    <t>5.14% Sucrose + 1.15% Mannitol + 0% Creatine</t>
+  </si>
+  <si>
+    <t>10.27% Sucrose + 4.55% Mannitol + 0.04% Creatine</t>
+  </si>
+  <si>
+    <t>5.14% Sucrose + 3.42% Mannitol + 0.04% Creatine</t>
+  </si>
+  <si>
+    <t>1.03% Sucrose + 0.46% Mannitol + 0.25% Creatine</t>
+  </si>
+  <si>
+    <t>5.14% Sucrose + 0.46% Mannitol + 0.08% Creatine</t>
+  </si>
+  <si>
+    <t>0% Sucrose + 2.28% Mannitol + 0.17% Creatine</t>
+  </si>
+  <si>
+    <t>1.03% Sucrose + 1.15% Mannitol + 0.33% Creatine</t>
+  </si>
+  <si>
+    <t>1.03% Sucrose + 2.28% Mannitol + 0.25% Creatine</t>
+  </si>
+  <si>
+    <t>10.27% Sucrose + 4.55% Mannitol + 0% Creatine</t>
+  </si>
+  <si>
+    <t>5.14% Sucrose + 3.42% Mannitol + 0.25% Creatine</t>
+  </si>
+  <si>
+    <t>7.70% Sucrose + 4.55% Mannitol + 0.04% Creatine</t>
+  </si>
+  <si>
+    <t>7.70% Sucrose + 6.30% Glycerol + 0% Creatine</t>
+  </si>
+  <si>
+    <t>10.27% Sucrose + 3.15% Glycerol + 0% Creatine</t>
+  </si>
+  <si>
+    <t>10.27% Sucrose + 3.15% Glycerol + 0.33% Creatine</t>
+  </si>
+  <si>
+    <t>10.27% Sucrose + 0% Glycerol + 0.33% Creatine</t>
+  </si>
+  <si>
+    <t>10.27% Sucrose + 1.57% Glycerol + 0.25% Creatine</t>
+  </si>
+  <si>
+    <t>0% Sucrose + 6.30% Glycerol + 0.25% Creatine</t>
+  </si>
+  <si>
+    <t>2.57% Sucrose + 0.63% Glycerol + 0.25% Creatine</t>
+  </si>
+  <si>
+    <t>1.03% Sucrose + 1.57% Glycerol + 0.33% Creatine</t>
+  </si>
+  <si>
+    <t>1.71% Sucrose + 0.63% Glycerol + 0.33% Creatine</t>
+  </si>
+  <si>
+    <t>2.57% Sucrose + 6.30% Glycerol + 0.04% Creatine</t>
+  </si>
+  <si>
+    <t>0% Sucrose + 6.30% Glycerol + 0.33% Creatine</t>
+  </si>
+  <si>
+    <t>5.14% Sucrose + 4.72% Glycerol + 0% Creatine</t>
+  </si>
+  <si>
+    <t>1.03% Sucrose + 0.63% Glycerol + 0.33% Creatine</t>
+  </si>
+  <si>
+    <t>7.70% Sucrose + 4.72% Glycerol + 0.08% Creatine</t>
+  </si>
+  <si>
+    <t>2.57% Sucrose + 6.30% Glycerol + 0.17% Creatine</t>
+  </si>
+  <si>
+    <t>0% Sucrose + 6.95% Glycerol + 0.31% Creatine</t>
+  </si>
+  <si>
+    <t>1.71% Sucrose + 4.72% Glycerol + 0% Creatine</t>
+  </si>
+  <si>
+    <t>7.70% Sucrose + 3.15% Glycerol + 0.17% Creatine</t>
+  </si>
+  <si>
+    <t>10.27% Sucrose + 4.72% Glycerol + 0.04% Creatine</t>
+  </si>
+  <si>
+    <t>5.14% Sucrose + 6.30% Glycerol + 0.04% Creatine</t>
+  </si>
+  <si>
+    <t>0% Sucrose + 1.57% Glycerol + 0.33% Creatine</t>
+  </si>
+  <si>
+    <t>5.14% Sucrose + 6.30% Glycerol + 0% Creatine</t>
+  </si>
+  <si>
+    <t>0% Sucrose + 0.63% Glycerol + 0.33% Creatine</t>
+  </si>
+  <si>
+    <t>5.14% Sucrose + 3.15% Glycerol + 0.08% Creatine</t>
+  </si>
+  <si>
+    <t>1.03% Sucrose + 6.30% Glycerol + 0.25% Creatine</t>
+  </si>
+  <si>
+    <t>1.03% Sucrose + 1.57% Glycerol + 0.17% Creatine</t>
+  </si>
+  <si>
+    <t>5.14% Sucrose + 0.63% Glycerol + 0.17% Creatine</t>
   </si>
   <si>
     <t>10 wt% PEG 400</t>
@@ -1120,7 +1117,7 @@
     <t>https://doi.org/10.1038/s44172-024-00239-0</t>
   </si>
   <si>
-    <t>7.1% DMSO + 5.91% Acetamide + 22.0% Propylene glycol</t>
+    <t>9.2% DMSO + 7.9% acetamide + 22.5% Propylene glycol</t>
   </si>
   <si>
     <t>MSC monolayers were first cultured in Equilibrium solution for 10 mins before vitrification. Vitrification solution added for 5 mins, removed by aspiration. Warmed by added warm rewarming solution. Trypan blue exclusion for quantitative viability after dispersal. Annexin V-FITC / PI staining to assess apoptosis vs necrosis. Cell Counting Kit-8 (CCK-8) for cell proliferation (read at 450 nm).</t>
@@ -1132,10 +1129,10 @@
     <t>DOI: 10.1021/acsbiomaterials.6b00150</t>
   </si>
   <si>
-    <t>36.4% EG + 17.1% Sucrose</t>
-  </si>
-  <si>
-    <t>36.4% EG + 10% COOH-PLL + 17.1% Sucrose</t>
+    <t>47.6% EG + 1.71% Sucrose</t>
+  </si>
+  <si>
+    <t>47.6% EG + 10% COOH-PLL + 1.71% Sucrose</t>
   </si>
   <si>
     <t>1.71% Sucrose</t>
@@ -1174,16 +1171,16 @@
     <t>13.69% Trehalose</t>
   </si>
   <si>
-    <t>2.52% Raffinose</t>
-  </si>
-  <si>
-    <t>5.04% Raffinose</t>
-  </si>
-  <si>
-    <t>7.57% Raffinose</t>
-  </si>
-  <si>
-    <t>20.18% Raffinose</t>
+    <t>1.71% Raffinose</t>
+  </si>
+  <si>
+    <t>3.42% Raffinose</t>
+  </si>
+  <si>
+    <t>5.13% Raffinose</t>
+  </si>
+  <si>
+    <t>13.69% Raffinose</t>
   </si>
   <si>
     <t>doi:10.4061/2011/981606</t>
@@ -1387,7 +1384,7 @@
     <t>10.1089/bio.2012.0005</t>
   </si>
   <si>
-    <t>20% FBS + 5% DMSO + 2.07% Trehalose</t>
+    <t>20% FBS + 5% DMSO + 2.05% Trehalose</t>
   </si>
   <si>
     <t>20% FBS + 2.5% DMSO + 1.03% Trehalose</t>
@@ -1408,7 +1405,7 @@
     <t>10% DMSO + 12% HES + 8% FBS</t>
   </si>
   <si>
-    <t>0.00143% z-VAD-fmk + 10% DMSO + 20% FBS</t>
+    <t>0.012% z-VAD-fmk + 10% DMSO + 20% FBS</t>
   </si>
   <si>
     <t>10% Human serum + 10% DMSO + 20% hydroxychyl starch</t>
@@ -1567,7 +1564,7 @@
     <t>10.1093/humrep/den202</t>
   </si>
   <si>
-    <t>40% Ethylene Glycol + 18% Ficoll 70 + 0.3 M Sucrose + 20% FBS</t>
+    <t>40% Ethylene Glycol + 18% Ficoll 70 + 10.27% Sucrose + 20% FBS</t>
   </si>
   <si>
     <t>6% Hydroxyethyl Starch + 20% DMSO</t>
@@ -2109,13 +2106,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="H371" sqref="H371"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="110.59765625" customWidth="1"/>
+    <col min="1" max="1" width="55.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2875,7 +2872,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
@@ -2921,10 +2918,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
         <v>79</v>
-      </c>
-      <c r="B34" t="s">
-        <v>80</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -2936,21 +2933,21 @@
         <v>0.47499999999999998</v>
       </c>
       <c r="F34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" t="s">
         <v>81</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>82</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>83</v>
-      </c>
-      <c r="I34" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2968,12 +2965,12 @@
         <v>64</v>
       </c>
       <c r="I35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36">
         <v>0.01</v>
@@ -2991,12 +2988,12 @@
         <v>64</v>
       </c>
       <c r="I36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B37">
         <v>0.02</v>
@@ -3014,12 +3011,12 @@
         <v>64</v>
       </c>
       <c r="I37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38">
         <v>0.03</v>
@@ -3037,12 +3034,12 @@
         <v>64</v>
       </c>
       <c r="I38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39">
         <v>0.04</v>
@@ -3060,12 +3057,12 @@
         <v>64</v>
       </c>
       <c r="I39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40">
         <v>0.05</v>
@@ -3083,18 +3080,18 @@
         <v>64</v>
       </c>
       <c r="G40" t="s">
+        <v>95</v>
+      </c>
+      <c r="H40" t="s">
         <v>96</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>97</v>
-      </c>
-      <c r="I40" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41">
         <v>0.06</v>
@@ -3112,12 +3109,12 @@
         <v>64</v>
       </c>
       <c r="I41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42">
         <v>7.0000000000000007E-2</v>
@@ -3135,12 +3132,12 @@
         <v>64</v>
       </c>
       <c r="I42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B43">
         <v>0.08</v>
@@ -3158,12 +3155,12 @@
         <v>64</v>
       </c>
       <c r="I43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B44">
         <v>0.09</v>
@@ -3181,7 +3178,7 @@
         <v>64</v>
       </c>
       <c r="I44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3204,12 +3201,12 @@
         <v>64</v>
       </c>
       <c r="I45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B46" t="s">
         <v>36</v>
@@ -3224,21 +3221,21 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F46" t="s">
+        <v>108</v>
+      </c>
+      <c r="G46" t="s">
         <v>109</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>110</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>111</v>
-      </c>
-      <c r="I46" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" t="s">
         <v>36</v>
@@ -3253,12 +3250,12 @@
         <v>0.45</v>
       </c>
       <c r="F47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B48">
         <v>0.05</v>
@@ -3276,18 +3273,18 @@
         <v>64</v>
       </c>
       <c r="G48" t="s">
+        <v>115</v>
+      </c>
+      <c r="H48" t="s">
         <v>116</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>117</v>
-      </c>
-      <c r="I48" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3307,7 +3304,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B50">
         <v>5.0000000000000001E-3</v>
@@ -3327,7 +3324,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B51">
         <v>0.01</v>
@@ -3347,7 +3344,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B52">
         <v>0.02</v>
@@ -3367,7 +3364,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B53">
         <v>0.04</v>
@@ -3387,7 +3384,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B54">
         <v>0.05</v>
@@ -3407,7 +3404,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B55">
         <v>0.1</v>
@@ -3427,7 +3424,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B56">
         <v>0.15</v>
@@ -3447,7 +3444,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B57">
         <v>0.2</v>
@@ -3467,7 +3464,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3485,18 +3482,18 @@
         <v>64</v>
       </c>
       <c r="G58" t="s">
+        <v>128</v>
+      </c>
+      <c r="H58" t="s">
         <v>129</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>130</v>
-      </c>
-      <c r="I58" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3516,7 +3513,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3536,7 +3533,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3556,7 +3553,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3576,7 +3573,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3596,7 +3593,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3616,7 +3613,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3674,18 +3671,18 @@
         <v>64</v>
       </c>
       <c r="G67" t="s">
+        <v>138</v>
+      </c>
+      <c r="H67" t="s">
         <v>139</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>140</v>
-      </c>
-      <c r="I67" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B68">
         <v>0.1</v>
@@ -3705,7 +3702,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B69">
         <v>7.4999999999999997E-2</v>
@@ -3725,7 +3722,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B70">
         <v>7.4999999999999997E-2</v>
@@ -3745,7 +3742,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B71">
         <v>7.4999999999999997E-2</v>
@@ -3763,12 +3760,12 @@
         <v>64</v>
       </c>
       <c r="H71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B72">
         <v>7.4999999999999997E-2</v>
@@ -3788,7 +3785,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3808,7 +3805,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3828,7 +3825,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B75">
         <v>0.1</v>
@@ -3843,21 +3840,21 @@
         <v>0.51</v>
       </c>
       <c r="F75" t="s">
+        <v>150</v>
+      </c>
+      <c r="G75" t="s">
         <v>151</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>152</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>153</v>
-      </c>
-      <c r="I75" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B76">
         <v>2.5000000000000001E-2</v>
@@ -3872,12 +3869,12 @@
         <v>0.17</v>
       </c>
       <c r="F76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B77">
         <v>2.5000000000000001E-2</v>
@@ -3892,12 +3889,12 @@
         <v>0.3</v>
       </c>
       <c r="F77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B78">
         <v>0.05</v>
@@ -3912,21 +3909,21 @@
         <v>43</v>
       </c>
       <c r="F78" t="s">
+        <v>159</v>
+      </c>
+      <c r="G78" t="s">
         <v>160</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>161</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>162</v>
-      </c>
-      <c r="I78" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B79">
         <v>0.1</v>
@@ -3941,12 +3938,12 @@
         <v>43</v>
       </c>
       <c r="F79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3961,12 +3958,12 @@
         <v>43</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3981,12 +3978,12 @@
         <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4001,12 +3998,12 @@
         <v>43</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4021,12 +4018,12 @@
         <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4041,12 +4038,12 @@
         <v>43</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4061,7 +4058,7 @@
         <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4081,21 +4078,21 @@
         <v>43</v>
       </c>
       <c r="F86" t="s">
+        <v>170</v>
+      </c>
+      <c r="G86" t="s">
         <v>171</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>172</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>173</v>
-      </c>
-      <c r="I86" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4110,7 +4107,7 @@
         <v>43</v>
       </c>
       <c r="F87" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4130,12 +4127,12 @@
         <v>43</v>
       </c>
       <c r="F88" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4150,12 +4147,12 @@
         <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B90">
         <v>0.1</v>
@@ -4173,18 +4170,18 @@
         <v>64</v>
       </c>
       <c r="G90" t="s">
+        <v>175</v>
+      </c>
+      <c r="H90" t="s">
+        <v>176</v>
+      </c>
+      <c r="I90" t="s">
         <v>177</v>
-      </c>
-      <c r="H90" t="s">
-        <v>178</v>
-      </c>
-      <c r="I90" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B91">
         <v>0.1</v>
@@ -4204,7 +4201,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4224,7 +4221,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4264,7 +4261,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4284,7 +4281,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4304,7 +4301,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4324,7 +4321,7 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4344,7 +4341,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4364,7 +4361,7 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4384,7 +4381,7 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4404,7 +4401,7 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4424,7 +4421,7 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -4444,7 +4441,7 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4464,7 +4461,7 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4479,21 +4476,21 @@
         <v>43</v>
       </c>
       <c r="F105" t="s">
+        <v>192</v>
+      </c>
+      <c r="G105" t="s">
+        <v>193</v>
+      </c>
+      <c r="H105" t="s">
         <v>194</v>
       </c>
-      <c r="G105" t="s">
+      <c r="I105" t="s">
         <v>195</v>
-      </c>
-      <c r="H105" t="s">
-        <v>196</v>
-      </c>
-      <c r="I105" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4508,12 +4505,12 @@
         <v>43</v>
       </c>
       <c r="F106" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4528,12 +4525,12 @@
         <v>43</v>
       </c>
       <c r="F107" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4548,12 +4545,12 @@
         <v>43</v>
       </c>
       <c r="F108" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4568,12 +4565,12 @@
         <v>43</v>
       </c>
       <c r="F109" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4588,12 +4585,12 @@
         <v>43</v>
       </c>
       <c r="F110" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B111">
         <v>0.1</v>
@@ -4608,12 +4605,12 @@
         <v>43</v>
       </c>
       <c r="F111" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B112">
         <v>0.1</v>
@@ -4628,12 +4625,12 @@
         <v>43</v>
       </c>
       <c r="F112" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B113">
         <v>0.1</v>
@@ -4648,12 +4645,12 @@
         <v>43</v>
       </c>
       <c r="F113" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B114">
         <v>0.1</v>
@@ -4668,15 +4665,15 @@
         <v>43</v>
       </c>
       <c r="F114" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H114" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B115">
         <v>0.1</v>
@@ -4691,21 +4688,21 @@
         <v>43</v>
       </c>
       <c r="F115" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G115" t="s">
+        <v>206</v>
+      </c>
+      <c r="H115" t="s">
+        <v>207</v>
+      </c>
+      <c r="I115" t="s">
         <v>208</v>
-      </c>
-      <c r="H115" t="s">
-        <v>209</v>
-      </c>
-      <c r="I115" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B116">
         <v>0.1</v>
@@ -4720,12 +4717,12 @@
         <v>43</v>
       </c>
       <c r="F116" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B117">
         <v>0.02</v>
@@ -4740,12 +4737,12 @@
         <v>43</v>
       </c>
       <c r="F117" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B118">
         <v>0.04</v>
@@ -4760,12 +4757,12 @@
         <v>43</v>
       </c>
       <c r="F118" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B119">
         <v>0.06</v>
@@ -4780,12 +4777,12 @@
         <v>43</v>
       </c>
       <c r="F119" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B120">
         <v>0.08</v>
@@ -4800,7 +4797,7 @@
         <v>43</v>
       </c>
       <c r="F120" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4820,12 +4817,12 @@
         <v>43</v>
       </c>
       <c r="F121" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -4840,12 +4837,12 @@
         <v>43</v>
       </c>
       <c r="F122" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -4860,12 +4857,12 @@
         <v>43</v>
       </c>
       <c r="F123" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -4880,12 +4877,12 @@
         <v>43</v>
       </c>
       <c r="F124" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B125">
         <v>0.1</v>
@@ -4900,7 +4897,7 @@
         <v>43</v>
       </c>
       <c r="F125" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4920,16 +4917,16 @@
         <v>43</v>
       </c>
       <c r="F126" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G126" t="s">
+        <v>217</v>
+      </c>
+      <c r="H126" t="s">
+        <v>218</v>
+      </c>
+      <c r="I126" t="s">
         <v>219</v>
-      </c>
-      <c r="H126" t="s">
-        <v>220</v>
-      </c>
-      <c r="I126" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4949,7 +4946,7 @@
         <v>43</v>
       </c>
       <c r="F127" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4969,12 +4966,12 @@
         <v>43</v>
       </c>
       <c r="F128" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B129">
         <v>7.4999999999999997E-2</v>
@@ -4989,12 +4986,12 @@
         <v>43</v>
       </c>
       <c r="F129" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B130">
         <v>7.4999999999999997E-2</v>
@@ -5009,12 +5006,12 @@
         <v>43</v>
       </c>
       <c r="F130" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B131">
         <v>0.05</v>
@@ -5029,12 +5026,12 @@
         <v>43</v>
       </c>
       <c r="F131" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B132">
         <v>0.05</v>
@@ -5049,12 +5046,12 @@
         <v>43</v>
       </c>
       <c r="F132" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B133">
         <v>0.05</v>
@@ -5069,12 +5066,12 @@
         <v>43</v>
       </c>
       <c r="F133" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B134">
         <v>0.05</v>
@@ -5089,12 +5086,12 @@
         <v>43</v>
       </c>
       <c r="F134" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B135">
         <v>2.5000000000000001E-2</v>
@@ -5109,12 +5106,12 @@
         <v>43</v>
       </c>
       <c r="F135" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B136">
         <v>2.5000000000000001E-2</v>
@@ -5129,12 +5126,12 @@
         <v>43</v>
       </c>
       <c r="F136" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -5149,12 +5146,12 @@
         <v>43</v>
       </c>
       <c r="F137" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -5169,12 +5166,12 @@
         <v>43</v>
       </c>
       <c r="F138" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -5189,21 +5186,21 @@
         <v>0.48</v>
       </c>
       <c r="F139" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G139" t="s">
+        <v>230</v>
+      </c>
+      <c r="H139" t="s">
+        <v>231</v>
+      </c>
+      <c r="I139" t="s">
         <v>232</v>
-      </c>
-      <c r="H139" t="s">
-        <v>233</v>
-      </c>
-      <c r="I139" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -5218,12 +5215,12 @@
         <v>0.32</v>
       </c>
       <c r="F140" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -5238,12 +5235,12 @@
         <v>0.62</v>
       </c>
       <c r="F141" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -5258,12 +5255,12 @@
         <v>0.52</v>
       </c>
       <c r="F142" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -5278,12 +5275,12 @@
         <v>43</v>
       </c>
       <c r="F143" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -5298,12 +5295,12 @@
         <v>43</v>
       </c>
       <c r="F144" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -5318,12 +5315,12 @@
         <v>0.82</v>
       </c>
       <c r="F145" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -5338,12 +5335,12 @@
         <v>0.71</v>
       </c>
       <c r="F146" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -5358,12 +5355,12 @@
         <v>0.47</v>
       </c>
       <c r="F147" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -5378,12 +5375,12 @@
         <v>0.43</v>
       </c>
       <c r="F148" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -5398,12 +5395,12 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="F149" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -5418,12 +5415,12 @@
         <v>0.54</v>
       </c>
       <c r="F150" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -5438,12 +5435,12 @@
         <v>0.48</v>
       </c>
       <c r="F151" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -5458,12 +5455,12 @@
         <v>0.31</v>
       </c>
       <c r="F152" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -5478,12 +5475,12 @@
         <v>0.46</v>
       </c>
       <c r="F153" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -5498,12 +5495,12 @@
         <v>0.41</v>
       </c>
       <c r="F154" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -5518,12 +5515,12 @@
         <v>0.52</v>
       </c>
       <c r="F155" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -5538,12 +5535,12 @@
         <v>0.38</v>
       </c>
       <c r="F156" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -5558,12 +5555,12 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="F157" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -5578,12 +5575,12 @@
         <v>0.37</v>
       </c>
       <c r="F158" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -5598,12 +5595,12 @@
         <v>0.22</v>
       </c>
       <c r="F159" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -5618,12 +5615,12 @@
         <v>0.33</v>
       </c>
       <c r="F160" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -5638,12 +5635,12 @@
         <v>0.09</v>
       </c>
       <c r="F161" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -5658,12 +5655,12 @@
         <v>0.49</v>
       </c>
       <c r="F162" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -5678,12 +5675,12 @@
         <v>0.2</v>
       </c>
       <c r="F163" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -5698,12 +5695,12 @@
         <v>0.33</v>
       </c>
       <c r="F164" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -5718,12 +5715,12 @@
         <v>0.32</v>
       </c>
       <c r="F165" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -5738,12 +5735,12 @@
         <v>0.34</v>
       </c>
       <c r="F166" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -5758,12 +5755,12 @@
         <v>0.47</v>
       </c>
       <c r="F167" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -5778,12 +5775,12 @@
         <v>0.31</v>
       </c>
       <c r="F168" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -5798,12 +5795,12 @@
         <v>0.15</v>
       </c>
       <c r="F169" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -5818,12 +5815,12 @@
         <v>0.26</v>
       </c>
       <c r="F170" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -5838,12 +5835,12 @@
         <v>0.19</v>
       </c>
       <c r="F171" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -5858,12 +5855,12 @@
         <v>0.94</v>
       </c>
       <c r="F172" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -5878,12 +5875,12 @@
         <v>0.78</v>
       </c>
       <c r="F173" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -5898,12 +5895,12 @@
         <v>1.02</v>
       </c>
       <c r="F174" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -5918,12 +5915,12 @@
         <v>0.78</v>
       </c>
       <c r="F175" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -5938,12 +5935,12 @@
         <v>0.59</v>
       </c>
       <c r="F176" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -5958,12 +5955,12 @@
         <v>0.64</v>
       </c>
       <c r="F177" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -5978,12 +5975,12 @@
         <v>0.53</v>
       </c>
       <c r="F178" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -5998,12 +5995,12 @@
         <v>0.36</v>
       </c>
       <c r="F179" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -6018,12 +6015,12 @@
         <v>0.38</v>
       </c>
       <c r="F180" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -6038,12 +6035,12 @@
         <v>0.67</v>
       </c>
       <c r="F181" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -6058,12 +6055,12 @@
         <v>0.76</v>
       </c>
       <c r="F182" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -6078,12 +6075,12 @@
         <v>0.68</v>
       </c>
       <c r="F183" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -6098,12 +6095,12 @@
         <v>0.31</v>
       </c>
       <c r="F184" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -6118,12 +6115,12 @@
         <v>0.44</v>
       </c>
       <c r="F185" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -6138,12 +6135,12 @@
         <v>0.46</v>
       </c>
       <c r="F186" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -6158,12 +6155,12 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="F187" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -6178,12 +6175,12 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F188" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -6198,12 +6195,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F189" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -6218,12 +6215,12 @@
         <v>0.54</v>
       </c>
       <c r="F190" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -6238,12 +6235,12 @@
         <v>0.43</v>
       </c>
       <c r="F191" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -6258,12 +6255,12 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F192" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -6278,12 +6275,12 @@
         <v>0.54</v>
       </c>
       <c r="F193" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -6298,12 +6295,12 @@
         <v>0.33</v>
       </c>
       <c r="F194" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -6318,12 +6315,12 @@
         <v>0.3</v>
       </c>
       <c r="F195" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -6338,12 +6335,12 @@
         <v>0.45</v>
       </c>
       <c r="F196" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -6358,12 +6355,12 @@
         <v>0.21</v>
       </c>
       <c r="F197" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -6378,12 +6375,12 @@
         <v>0.39</v>
       </c>
       <c r="F198" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -6398,12 +6395,12 @@
         <v>0.68</v>
       </c>
       <c r="F199" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -6418,12 +6415,12 @@
         <v>0.43</v>
       </c>
       <c r="F200" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -6438,12 +6435,12 @@
         <v>0.41</v>
       </c>
       <c r="F201" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -6458,21 +6455,21 @@
         <v>0.05</v>
       </c>
       <c r="F202" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G202" t="s">
+        <v>291</v>
+      </c>
+      <c r="H202" t="s">
         <v>292</v>
       </c>
-      <c r="H202" t="s">
+      <c r="I202" t="s">
         <v>293</v>
-      </c>
-      <c r="I202" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -6487,12 +6484,12 @@
         <v>0.05</v>
       </c>
       <c r="F203" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -6507,12 +6504,12 @@
         <v>0.35</v>
       </c>
       <c r="F204" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -6527,12 +6524,12 @@
         <v>0.48</v>
       </c>
       <c r="F205" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -6547,12 +6544,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F206" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -6567,12 +6564,12 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F207" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -6587,7 +6584,7 @@
         <v>0.22</v>
       </c>
       <c r="F208" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -6607,12 +6604,12 @@
         <v>0.7</v>
       </c>
       <c r="F209" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210">
         <v>0.1</v>
@@ -6627,15 +6624,15 @@
         <v>43</v>
       </c>
       <c r="F210" t="s">
+        <v>301</v>
+      </c>
+      <c r="I210" t="s">
         <v>302</v>
-      </c>
-      <c r="I210" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B211">
         <v>0.05</v>
@@ -6650,12 +6647,12 @@
         <v>43</v>
       </c>
       <c r="F211" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B212">
         <v>0.03</v>
@@ -6670,12 +6667,12 @@
         <v>43</v>
       </c>
       <c r="F212" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B213">
         <v>0.05</v>
@@ -6690,12 +6687,12 @@
         <v>43</v>
       </c>
       <c r="F213" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B214">
         <v>0.05</v>
@@ -6710,12 +6707,12 @@
         <v>43</v>
       </c>
       <c r="F214" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B215">
         <v>0.03</v>
@@ -6730,12 +6727,12 @@
         <v>43</v>
       </c>
       <c r="F215" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B216">
         <v>0.03</v>
@@ -6750,12 +6747,12 @@
         <v>43</v>
       </c>
       <c r="F216" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -6770,21 +6767,21 @@
         <v>0.24</v>
       </c>
       <c r="F217" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G217" t="s">
+        <v>312</v>
+      </c>
+      <c r="H217" t="s">
         <v>313</v>
       </c>
-      <c r="H217" t="s">
+      <c r="I217" t="s">
         <v>314</v>
-      </c>
-      <c r="I217" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -6799,12 +6796,12 @@
         <v>0.64</v>
       </c>
       <c r="F218" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -6819,12 +6816,12 @@
         <v>0.47</v>
       </c>
       <c r="F219" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -6839,12 +6836,12 @@
         <v>0.52</v>
       </c>
       <c r="F220" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -6859,12 +6856,12 @@
         <v>0.78</v>
       </c>
       <c r="F221" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -6879,12 +6876,12 @@
         <v>0.81</v>
       </c>
       <c r="F222" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -6899,12 +6896,12 @@
         <v>0.38</v>
       </c>
       <c r="F223" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -6919,12 +6916,12 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="F224" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -6939,12 +6936,12 @@
         <v>0.64</v>
       </c>
       <c r="F225" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -6959,12 +6956,12 @@
         <v>0.19</v>
       </c>
       <c r="F226" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="227" spans="1:9">
       <c r="A227" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -6979,12 +6976,12 @@
         <v>0.27</v>
       </c>
       <c r="F227" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -6999,12 +6996,12 @@
         <v>0.22</v>
       </c>
       <c r="F228" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -7019,12 +7016,12 @@
         <v>0.48</v>
       </c>
       <c r="F229" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -7039,12 +7036,12 @@
         <v>0.72</v>
       </c>
       <c r="F230" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="231" spans="1:9">
       <c r="A231" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -7059,12 +7056,12 @@
         <v>0.64</v>
       </c>
       <c r="F231" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="232" spans="1:9">
       <c r="A232" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B232">
         <v>0.1</v>
@@ -7079,12 +7076,12 @@
         <v>0.98</v>
       </c>
       <c r="F232" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="233" spans="1:9">
       <c r="A233" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -7099,12 +7096,12 @@
         <v>0.12</v>
       </c>
       <c r="F233" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B234">
         <v>0.05</v>
@@ -7122,18 +7119,18 @@
         <v>64</v>
       </c>
       <c r="G234" t="s">
+        <v>322</v>
+      </c>
+      <c r="H234" t="s">
         <v>323</v>
       </c>
-      <c r="H234" t="s">
+      <c r="I234" t="s">
         <v>324</v>
-      </c>
-      <c r="I234" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="235" spans="1:9">
       <c r="A235" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B235">
         <v>0.05</v>
@@ -7151,18 +7148,18 @@
         <v>64</v>
       </c>
       <c r="G235" t="s">
+        <v>322</v>
+      </c>
+      <c r="H235" t="s">
         <v>323</v>
       </c>
-      <c r="H235" t="s">
+      <c r="I235" t="s">
         <v>324</v>
-      </c>
-      <c r="I235" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B236">
         <v>0.1</v>
@@ -7180,18 +7177,18 @@
         <v>64</v>
       </c>
       <c r="G236" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H236" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I236" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B237">
         <v>0.1</v>
@@ -7209,18 +7206,18 @@
         <v>64</v>
       </c>
       <c r="G237" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H237" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I237" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B238">
         <v>0.1</v>
@@ -7238,18 +7235,18 @@
         <v>64</v>
       </c>
       <c r="G238" t="s">
+        <v>327</v>
+      </c>
+      <c r="H238" t="s">
         <v>328</v>
       </c>
-      <c r="H238" t="s">
-        <v>329</v>
-      </c>
       <c r="I238" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B239">
         <v>0.1</v>
@@ -7267,24 +7264,24 @@
         <v>64</v>
       </c>
       <c r="G239" t="s">
+        <v>327</v>
+      </c>
+      <c r="H239" t="s">
         <v>328</v>
       </c>
-      <c r="H239" t="s">
-        <v>329</v>
-      </c>
       <c r="I239" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B240">
         <v>0.1</v>
       </c>
       <c r="C240" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D240">
         <v>0.06</v>
@@ -7296,24 +7293,24 @@
         <v>64</v>
       </c>
       <c r="G240" t="s">
+        <v>330</v>
+      </c>
+      <c r="H240" t="s">
         <v>331</v>
       </c>
-      <c r="H240" t="s">
-        <v>332</v>
-      </c>
       <c r="I240" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B241">
         <v>0.1</v>
       </c>
       <c r="C241" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D241">
         <v>0.03</v>
@@ -7325,18 +7322,18 @@
         <v>64</v>
       </c>
       <c r="G241" t="s">
+        <v>330</v>
+      </c>
+      <c r="H241" t="s">
         <v>331</v>
       </c>
-      <c r="H241" t="s">
-        <v>332</v>
-      </c>
       <c r="I241" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B242">
         <v>0.1</v>
@@ -7354,18 +7351,18 @@
         <v>64</v>
       </c>
       <c r="G242" t="s">
+        <v>333</v>
+      </c>
+      <c r="H242" t="s">
         <v>334</v>
       </c>
-      <c r="H242" t="s">
+      <c r="I242" t="s">
         <v>335</v>
-      </c>
-      <c r="I242" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B243">
         <v>0.1</v>
@@ -7383,18 +7380,18 @@
         <v>64</v>
       </c>
       <c r="G243" t="s">
+        <v>336</v>
+      </c>
+      <c r="H243" t="s">
         <v>337</v>
       </c>
-      <c r="H243" t="s">
-        <v>338</v>
-      </c>
       <c r="I243" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B244">
         <v>0.05</v>
@@ -7412,18 +7409,18 @@
         <v>64</v>
       </c>
       <c r="G244" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H244" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I244" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="245" spans="1:9">
       <c r="A245" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B245">
         <v>0.05</v>
@@ -7441,18 +7438,18 @@
         <v>64</v>
       </c>
       <c r="G245" t="s">
+        <v>341</v>
+      </c>
+      <c r="H245" t="s">
         <v>342</v>
       </c>
-      <c r="H245" t="s">
-        <v>343</v>
-      </c>
       <c r="I245" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="246" spans="1:9">
       <c r="A246" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B246">
         <v>0.05</v>
@@ -7470,18 +7467,18 @@
         <v>64</v>
       </c>
       <c r="G246" t="s">
+        <v>343</v>
+      </c>
+      <c r="H246" t="s">
         <v>344</v>
       </c>
-      <c r="H246" t="s">
-        <v>345</v>
-      </c>
       <c r="I246" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="247" spans="1:9">
       <c r="A247" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B247">
         <v>0.05</v>
@@ -7499,18 +7496,18 @@
         <v>64</v>
       </c>
       <c r="G247" t="s">
+        <v>345</v>
+      </c>
+      <c r="H247" t="s">
         <v>346</v>
       </c>
-      <c r="H247" t="s">
-        <v>347</v>
-      </c>
       <c r="I247" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="248" spans="1:9">
       <c r="A248" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B248">
         <v>0.1</v>
@@ -7528,18 +7525,18 @@
         <v>64</v>
       </c>
       <c r="G248" t="s">
+        <v>348</v>
+      </c>
+      <c r="H248" t="s">
         <v>349</v>
       </c>
-      <c r="H248" t="s">
+      <c r="I248" t="s">
         <v>350</v>
-      </c>
-      <c r="I248" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B249">
         <v>0.1</v>
@@ -7559,7 +7556,7 @@
     </row>
     <row r="250" spans="1:9">
       <c r="A250" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B250">
         <v>0.1</v>
@@ -7579,7 +7576,7 @@
     </row>
     <row r="251" spans="1:9">
       <c r="A251" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B251">
         <v>0.1</v>
@@ -7599,7 +7596,7 @@
     </row>
     <row r="252" spans="1:9">
       <c r="A252" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B252">
         <v>0.05</v>
@@ -7614,21 +7611,21 @@
         <v>0.9</v>
       </c>
       <c r="F252" t="s">
+        <v>352</v>
+      </c>
+      <c r="G252" t="s">
         <v>353</v>
       </c>
-      <c r="G252" t="s">
+      <c r="H252" t="s">
         <v>354</v>
       </c>
-      <c r="H252" t="s">
+      <c r="I252" t="s">
         <v>355</v>
-      </c>
-      <c r="I252" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="253" spans="1:9">
       <c r="A253" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -7643,21 +7640,21 @@
         <v>43</v>
       </c>
       <c r="F253" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G253" t="s">
+        <v>357</v>
+      </c>
+      <c r="H253" t="s">
         <v>358</v>
       </c>
-      <c r="H253" t="s">
+      <c r="I253" t="s">
         <v>359</v>
-      </c>
-      <c r="I253" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="254" spans="1:9">
       <c r="A254" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -7672,16 +7669,16 @@
         <v>43</v>
       </c>
       <c r="F254" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G254" t="s">
+        <v>357</v>
+      </c>
+      <c r="H254" t="s">
         <v>358</v>
       </c>
-      <c r="H254" t="s">
+      <c r="I254" t="s">
         <v>359</v>
-      </c>
-      <c r="I254" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -7701,12 +7698,12 @@
         <v>43</v>
       </c>
       <c r="F255" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="256" spans="1:9">
       <c r="A256" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B256">
         <v>0.2</v>
@@ -7721,21 +7718,21 @@
         <v>43</v>
       </c>
       <c r="F256" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G256" t="s">
+        <v>361</v>
+      </c>
+      <c r="H256" t="s">
         <v>362</v>
       </c>
-      <c r="H256" t="s">
+      <c r="I256" t="s">
         <v>363</v>
-      </c>
-      <c r="I256" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="257" spans="1:9">
       <c r="A257" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -7750,12 +7747,12 @@
         <v>43</v>
       </c>
       <c r="F257" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="258" spans="1:9">
       <c r="A258" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -7770,12 +7767,12 @@
         <v>43</v>
       </c>
       <c r="F258" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="259" spans="1:9">
       <c r="A259" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B259">
         <v>0.2</v>
@@ -7790,12 +7787,12 @@
         <v>43</v>
       </c>
       <c r="F259" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="260" spans="1:9">
       <c r="A260" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -7810,12 +7807,12 @@
         <v>43</v>
       </c>
       <c r="F260" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="261" spans="1:9">
       <c r="A261" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -7830,12 +7827,12 @@
         <v>43</v>
       </c>
       <c r="F261" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="262" spans="1:9">
       <c r="A262" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B262">
         <v>0.2</v>
@@ -7850,12 +7847,12 @@
         <v>43</v>
       </c>
       <c r="F262" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="263" spans="1:9">
       <c r="A263" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -7870,12 +7867,12 @@
         <v>43</v>
       </c>
       <c r="F263" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="264" spans="1:9">
       <c r="A264" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -7890,12 +7887,12 @@
         <v>43</v>
       </c>
       <c r="F264" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="265" spans="1:9">
       <c r="A265" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B265">
         <v>0.2</v>
@@ -7910,12 +7907,12 @@
         <v>43</v>
       </c>
       <c r="F265" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="266" spans="1:9">
       <c r="A266" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -7930,12 +7927,12 @@
         <v>43</v>
       </c>
       <c r="F266" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="267" spans="1:9">
       <c r="A267" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -7950,18 +7947,18 @@
         <v>43</v>
       </c>
       <c r="F267" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="268" spans="1:9">
       <c r="A268" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B268">
         <v>0.2</v>
       </c>
       <c r="C268" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D268">
         <v>0.85</v>
@@ -7970,18 +7967,18 @@
         <v>43</v>
       </c>
       <c r="F268" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="269" spans="1:9">
       <c r="A269" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B269">
         <v>0</v>
       </c>
       <c r="C269" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D269">
         <v>0.98</v>
@@ -7990,18 +7987,18 @@
         <v>43</v>
       </c>
       <c r="F269" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="270" spans="1:9">
       <c r="A270" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B270">
         <v>0</v>
       </c>
       <c r="C270" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D270">
         <v>1</v>
@@ -8010,12 +8007,12 @@
         <v>43</v>
       </c>
       <c r="F270" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="271" spans="1:9">
       <c r="A271" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -8030,21 +8027,21 @@
         <v>43</v>
       </c>
       <c r="F271" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G271" t="s">
+        <v>367</v>
+      </c>
+      <c r="H271" t="s">
         <v>368</v>
       </c>
-      <c r="H271" t="s">
+      <c r="I271" t="s">
         <v>369</v>
-      </c>
-      <c r="I271" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="272" spans="1:9">
       <c r="A272" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B272">
         <v>0</v>
@@ -8059,15 +8056,15 @@
         <v>43</v>
       </c>
       <c r="F272" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H272" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="273" spans="1:9">
       <c r="A273" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -8082,12 +8079,12 @@
         <v>43</v>
       </c>
       <c r="F273" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="274" spans="1:9">
       <c r="A274" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -8102,12 +8099,12 @@
         <v>43</v>
       </c>
       <c r="F274" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="275" spans="1:9">
       <c r="A275" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -8122,12 +8119,12 @@
         <v>43</v>
       </c>
       <c r="F275" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="276" spans="1:9">
       <c r="A276" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -8142,12 +8139,12 @@
         <v>43</v>
       </c>
       <c r="F276" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="277" spans="1:9">
       <c r="A277" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -8162,12 +8159,12 @@
         <v>43</v>
       </c>
       <c r="F277" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="278" spans="1:9">
       <c r="A278" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -8182,12 +8179,12 @@
         <v>43</v>
       </c>
       <c r="F278" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="279" spans="1:9">
       <c r="A279" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -8202,12 +8199,12 @@
         <v>43</v>
       </c>
       <c r="F279" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="280" spans="1:9">
       <c r="A280" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B280">
         <v>0</v>
@@ -8222,12 +8219,12 @@
         <v>43</v>
       </c>
       <c r="F280" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="281" spans="1:9">
       <c r="A281" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B281">
         <v>0</v>
@@ -8242,12 +8239,12 @@
         <v>43</v>
       </c>
       <c r="F281" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="282" spans="1:9">
       <c r="A282" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -8262,7 +8259,7 @@
         <v>43</v>
       </c>
       <c r="F282" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -8282,15 +8279,15 @@
         <v>0.15</v>
       </c>
       <c r="F283" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I283" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="284" spans="1:9">
       <c r="A284" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -8305,12 +8302,12 @@
         <v>0.17</v>
       </c>
       <c r="F284" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="285" spans="1:9">
       <c r="A285" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -8325,12 +8322,12 @@
         <v>0.1</v>
       </c>
       <c r="F285" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="286" spans="1:9">
       <c r="A286" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -8345,12 +8342,12 @@
         <v>0.05</v>
       </c>
       <c r="F286" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="287" spans="1:9">
       <c r="A287" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -8365,12 +8362,12 @@
         <v>0.22</v>
       </c>
       <c r="F287" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="288" spans="1:9">
       <c r="A288" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B288">
         <v>0.1</v>
@@ -8385,12 +8382,12 @@
         <v>0.44</v>
       </c>
       <c r="F288" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="289" spans="1:9">
       <c r="A289" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B289">
         <v>0</v>
@@ -8405,12 +8402,12 @@
         <v>0.52</v>
       </c>
       <c r="F289" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="290" spans="1:9">
       <c r="A290" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B290">
         <v>0</v>
@@ -8425,12 +8422,12 @@
         <v>0.24</v>
       </c>
       <c r="F290" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="291" spans="1:9">
       <c r="A291" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B291">
         <v>0</v>
@@ -8445,12 +8442,12 @@
         <v>0.18</v>
       </c>
       <c r="F291" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="292" spans="1:9">
       <c r="A292" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B292">
         <v>0</v>
@@ -8465,12 +8462,12 @@
         <v>0.12</v>
       </c>
       <c r="F292" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="293" spans="1:9">
       <c r="A293" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B293">
         <v>0</v>
@@ -8485,21 +8482,21 @@
         <v>43</v>
       </c>
       <c r="F293" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G293" t="s">
+        <v>393</v>
+      </c>
+      <c r="H293" t="s">
         <v>394</v>
       </c>
-      <c r="H293" t="s">
+      <c r="I293" t="s">
         <v>395</v>
-      </c>
-      <c r="I293" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="294" spans="1:9">
       <c r="A294" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -8514,12 +8511,12 @@
         <v>43</v>
       </c>
       <c r="F294" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="295" spans="1:9">
       <c r="A295" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -8534,12 +8531,12 @@
         <v>43</v>
       </c>
       <c r="F295" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="296" spans="1:9">
       <c r="A296" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -8554,12 +8551,12 @@
         <v>43</v>
       </c>
       <c r="F296" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="297" spans="1:9">
       <c r="A297" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B297">
         <v>0</v>
@@ -8574,12 +8571,12 @@
         <v>43</v>
       </c>
       <c r="F297" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="298" spans="1:9">
       <c r="A298" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -8594,7 +8591,7 @@
         <v>43</v>
       </c>
       <c r="F298" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -8614,21 +8611,21 @@
         <v>43</v>
       </c>
       <c r="F299" t="s">
+        <v>401</v>
+      </c>
+      <c r="G299" t="s">
         <v>402</v>
       </c>
-      <c r="G299" t="s">
+      <c r="H299" t="s">
         <v>403</v>
       </c>
-      <c r="H299" t="s">
+      <c r="I299" t="s">
         <v>404</v>
-      </c>
-      <c r="I299" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="300" spans="1:9">
       <c r="A300" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -8643,12 +8640,12 @@
         <v>43</v>
       </c>
       <c r="F300" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="301" spans="1:9">
       <c r="A301" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B301">
         <v>0</v>
@@ -8663,12 +8660,12 @@
         <v>43</v>
       </c>
       <c r="F301" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="302" spans="1:9">
       <c r="A302" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B302">
         <v>0</v>
@@ -8683,7 +8680,7 @@
         <v>43</v>
       </c>
       <c r="F302" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="303" spans="1:9">
@@ -8703,12 +8700,12 @@
         <v>43</v>
       </c>
       <c r="F303" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="304" spans="1:9">
       <c r="A304" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B304">
         <v>0</v>
@@ -8723,12 +8720,12 @@
         <v>43</v>
       </c>
       <c r="F304" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="305" spans="1:9">
       <c r="A305" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -8743,12 +8740,12 @@
         <v>43</v>
       </c>
       <c r="F305" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="306" spans="1:9">
       <c r="A306" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -8763,12 +8760,12 @@
         <v>43</v>
       </c>
       <c r="F306" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="307" spans="1:9">
       <c r="A307" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B307">
         <v>0</v>
@@ -8783,21 +8780,21 @@
         <v>0.64</v>
       </c>
       <c r="F307" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G307" t="s">
+        <v>411</v>
+      </c>
+      <c r="H307" t="s">
         <v>412</v>
       </c>
-      <c r="H307" t="s">
+      <c r="I307" t="s">
         <v>413</v>
-      </c>
-      <c r="I307" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="308" spans="1:9">
       <c r="A308" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -8812,12 +8809,12 @@
         <v>0.82</v>
       </c>
       <c r="F308" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="309" spans="1:9">
       <c r="A309" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -8832,12 +8829,12 @@
         <v>0.96</v>
       </c>
       <c r="F309" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="310" spans="1:9">
       <c r="A310" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B310">
         <v>0.04</v>
@@ -8852,21 +8849,21 @@
         <v>43</v>
       </c>
       <c r="F310" t="s">
+        <v>417</v>
+      </c>
+      <c r="G310" t="s">
         <v>418</v>
       </c>
-      <c r="G310" t="s">
+      <c r="H310" t="s">
         <v>419</v>
       </c>
-      <c r="H310" t="s">
+      <c r="I310" t="s">
         <v>420</v>
-      </c>
-      <c r="I310" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="311" spans="1:9">
       <c r="A311" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B311">
         <v>0.04</v>
@@ -8881,12 +8878,12 @@
         <v>43</v>
       </c>
       <c r="F311" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="312" spans="1:9">
       <c r="A312" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B312">
         <v>0.04</v>
@@ -8901,12 +8898,12 @@
         <v>43</v>
       </c>
       <c r="F312" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="313" spans="1:9">
       <c r="A313" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B313">
         <v>0.04</v>
@@ -8921,12 +8918,12 @@
         <v>43</v>
       </c>
       <c r="F313" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="314" spans="1:9">
       <c r="A314" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B314">
         <v>0.04</v>
@@ -8941,12 +8938,12 @@
         <v>43</v>
       </c>
       <c r="F314" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="315" spans="1:9">
       <c r="A315" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B315">
         <v>0.04</v>
@@ -8961,12 +8958,12 @@
         <v>43</v>
       </c>
       <c r="F315" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="316" spans="1:9">
       <c r="A316" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B316">
         <v>0.04</v>
@@ -8981,12 +8978,12 @@
         <v>43</v>
       </c>
       <c r="F316" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="317" spans="1:9">
       <c r="A317" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B317">
         <v>0.04</v>
@@ -9001,12 +8998,12 @@
         <v>43</v>
       </c>
       <c r="F317" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="318" spans="1:9">
       <c r="A318" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B318">
         <v>0.04</v>
@@ -9021,12 +9018,12 @@
         <v>43</v>
       </c>
       <c r="F318" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="319" spans="1:9">
       <c r="A319" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B319">
         <v>0</v>
@@ -9041,12 +9038,12 @@
         <v>43</v>
       </c>
       <c r="F319" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="320" spans="1:9">
       <c r="A320" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B320">
         <v>0.1</v>
@@ -9061,27 +9058,27 @@
         <v>0.79</v>
       </c>
       <c r="F320" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G320" t="s">
+        <v>430</v>
+      </c>
+      <c r="H320" t="s">
         <v>431</v>
       </c>
-      <c r="H320" t="s">
+      <c r="I320" t="s">
         <v>432</v>
-      </c>
-      <c r="I320" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="321" spans="1:9">
       <c r="A321" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B321">
         <v>0</v>
       </c>
       <c r="C321" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D321">
         <v>0.99</v>
@@ -9090,10 +9087,10 @@
         <v>0.26</v>
       </c>
       <c r="F321" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G321" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -9104,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="C322" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D322">
         <v>0.99</v>
@@ -9113,21 +9110,21 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F322" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G322" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="323" spans="1:9">
       <c r="A323" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B323">
         <v>0.1</v>
       </c>
       <c r="C323" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D323">
         <v>0.83</v>
@@ -9136,21 +9133,21 @@
         <v>0.68</v>
       </c>
       <c r="F323" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G323" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="324" spans="1:9">
       <c r="A324" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B324">
         <v>0.1</v>
       </c>
       <c r="C324" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D324">
         <v>0.99</v>
@@ -9159,21 +9156,21 @@
         <v>0.48</v>
       </c>
       <c r="F324" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G324" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="325" spans="1:9">
       <c r="A325" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B325">
         <v>0</v>
       </c>
       <c r="C325" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D325">
         <v>0.87</v>
@@ -9182,15 +9179,15 @@
         <v>0.51</v>
       </c>
       <c r="F325" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G325" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="326" spans="1:9">
       <c r="A326" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B326">
         <v>0.05</v>
@@ -9205,21 +9202,21 @@
         <v>43</v>
       </c>
       <c r="F326" t="s">
+        <v>439</v>
+      </c>
+      <c r="G326" t="s">
         <v>440</v>
       </c>
-      <c r="G326" t="s">
+      <c r="H326" t="s">
         <v>441</v>
       </c>
-      <c r="H326" t="s">
+      <c r="I326" t="s">
         <v>442</v>
-      </c>
-      <c r="I326" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="327" spans="1:9">
       <c r="A327" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B327">
         <v>0.1</v>
@@ -9234,21 +9231,21 @@
         <v>43</v>
       </c>
       <c r="F327" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G327" t="s">
+        <v>444</v>
+      </c>
+      <c r="H327" t="s">
         <v>445</v>
       </c>
-      <c r="H327" t="s">
+      <c r="I327" t="s">
         <v>446</v>
-      </c>
-      <c r="I327" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="328" spans="1:9">
       <c r="A328" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B328">
         <v>0.1</v>
@@ -9263,21 +9260,21 @@
         <v>43</v>
       </c>
       <c r="F328" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G328" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H328" t="s">
+        <v>447</v>
+      </c>
+      <c r="I328" t="s">
         <v>448</v>
-      </c>
-      <c r="I328" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="329" spans="1:9">
       <c r="A329" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B329">
         <v>0.05</v>
@@ -9292,12 +9289,12 @@
         <v>43</v>
       </c>
       <c r="F329" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="330" spans="1:9">
       <c r="A330" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B330">
         <v>2.5000000000000001E-2</v>
@@ -9312,12 +9309,12 @@
         <v>43</v>
       </c>
       <c r="F330" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="331" spans="1:9">
       <c r="A331" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B331">
         <v>0</v>
@@ -9332,12 +9329,12 @@
         <v>43</v>
       </c>
       <c r="F331" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="332" spans="1:9">
       <c r="A332" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B332">
         <v>0.05</v>
@@ -9352,12 +9349,12 @@
         <v>43</v>
       </c>
       <c r="F332" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="333" spans="1:9">
       <c r="A333" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B333">
         <v>7.0000000000000007E-2</v>
@@ -9372,12 +9369,12 @@
         <v>43</v>
       </c>
       <c r="F333" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="334" spans="1:9">
       <c r="A334" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B334">
         <v>0.05</v>
@@ -9392,12 +9389,12 @@
         <v>43</v>
       </c>
       <c r="F334" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="335" spans="1:9">
       <c r="A335" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B335">
         <v>0.1</v>
@@ -9412,12 +9409,12 @@
         <v>43</v>
       </c>
       <c r="F335" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="336" spans="1:9">
       <c r="A336" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B336">
         <v>0.1</v>
@@ -9432,12 +9429,12 @@
         <v>43</v>
       </c>
       <c r="F336" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="337" spans="1:9">
       <c r="A337" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B337">
         <v>0.1</v>
@@ -9452,12 +9449,12 @@
         <v>43</v>
       </c>
       <c r="F337" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="338" spans="1:9">
       <c r="A338" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B338">
         <v>0.1</v>
@@ -9472,21 +9469,21 @@
         <v>0.81030000000000002</v>
       </c>
       <c r="F338" t="s">
+        <v>458</v>
+      </c>
+      <c r="G338" t="s">
         <v>459</v>
       </c>
-      <c r="G338" t="s">
+      <c r="H338" t="s">
         <v>460</v>
       </c>
-      <c r="H338" t="s">
+      <c r="I338" t="s">
         <v>461</v>
-      </c>
-      <c r="I338" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="339" spans="1:9">
       <c r="A339" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B339">
         <v>0.1</v>
@@ -9501,21 +9498,21 @@
         <v>43</v>
       </c>
       <c r="F339" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G339" t="s">
+        <v>463</v>
+      </c>
+      <c r="H339" t="s">
         <v>464</v>
       </c>
-      <c r="H339" t="s">
+      <c r="I339" t="s">
         <v>465</v>
-      </c>
-      <c r="I339" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="340" spans="1:9">
       <c r="A340" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B340">
         <v>0.1</v>
@@ -9530,12 +9527,12 @@
         <v>43</v>
       </c>
       <c r="F340" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="341" spans="1:9">
       <c r="A341" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B341">
         <v>0.1</v>
@@ -9550,12 +9547,12 @@
         <v>43</v>
       </c>
       <c r="F341" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="342" spans="1:9">
       <c r="A342" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B342">
         <v>0.1</v>
@@ -9570,12 +9567,12 @@
         <v>43</v>
       </c>
       <c r="F342" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="343" spans="1:9">
       <c r="A343" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B343">
         <v>0.1</v>
@@ -9590,12 +9587,12 @@
         <v>43</v>
       </c>
       <c r="F343" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="344" spans="1:9">
       <c r="A344" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B344">
         <v>0.1</v>
@@ -9610,12 +9607,12 @@
         <v>43</v>
       </c>
       <c r="F344" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="345" spans="1:9">
       <c r="A345" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B345">
         <v>0.05</v>
@@ -9630,12 +9627,12 @@
         <v>43</v>
       </c>
       <c r="F345" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="346" spans="1:9">
       <c r="A346" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B346">
         <v>0.05</v>
@@ -9650,12 +9647,12 @@
         <v>43</v>
       </c>
       <c r="F346" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="347" spans="1:9">
       <c r="A347" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B347">
         <v>0.05</v>
@@ -9670,12 +9667,12 @@
         <v>43</v>
       </c>
       <c r="F347" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="348" spans="1:9">
       <c r="A348" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B348">
         <v>0</v>
@@ -9690,12 +9687,12 @@
         <v>43</v>
       </c>
       <c r="F348" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="349" spans="1:9">
       <c r="A349" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B349">
         <v>0</v>
@@ -9710,12 +9707,12 @@
         <v>43</v>
       </c>
       <c r="F349" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="350" spans="1:9">
       <c r="A350" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B350">
         <v>0</v>
@@ -9730,7 +9727,7 @@
         <v>43</v>
       </c>
       <c r="F350" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -9750,7 +9747,7 @@
         <v>43</v>
       </c>
       <c r="F351" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -9770,7 +9767,7 @@
         <v>43</v>
       </c>
       <c r="F352" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -9790,41 +9787,41 @@
         <v>43</v>
       </c>
       <c r="F353" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="354" spans="1:9">
       <c r="A354" t="s">
+        <v>469</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+      <c r="C354" t="s">
+        <v>10</v>
+      </c>
+      <c r="D354" t="s">
+        <v>43</v>
+      </c>
+      <c r="E354" t="s">
+        <v>43</v>
+      </c>
+      <c r="F354" t="s">
+        <v>192</v>
+      </c>
+      <c r="G354" t="s">
         <v>470</v>
       </c>
-      <c r="B354">
-        <v>0</v>
-      </c>
-      <c r="C354" t="s">
-        <v>10</v>
-      </c>
-      <c r="D354" t="s">
-        <v>43</v>
-      </c>
-      <c r="E354" t="s">
-        <v>43</v>
-      </c>
-      <c r="F354" t="s">
-        <v>194</v>
-      </c>
-      <c r="G354" t="s">
+      <c r="H354" t="s">
+        <v>352</v>
+      </c>
+      <c r="I354" t="s">
         <v>471</v>
-      </c>
-      <c r="H354" t="s">
-        <v>353</v>
-      </c>
-      <c r="I354" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="355" spans="1:9">
       <c r="A355" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -9839,18 +9836,18 @@
         <v>43</v>
       </c>
       <c r="F355" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H355" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I355" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="356" spans="1:9">
       <c r="A356" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B356">
         <v>0</v>
@@ -9865,24 +9862,24 @@
         <v>43</v>
       </c>
       <c r="F356" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H356" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I356" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="357" spans="1:9">
       <c r="A357" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B357" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C357" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D357">
         <v>0.93</v>
@@ -9891,27 +9888,27 @@
         <v>43</v>
       </c>
       <c r="F357" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G357" t="s">
+        <v>475</v>
+      </c>
+      <c r="H357" t="s">
         <v>476</v>
       </c>
-      <c r="H357" t="s">
-        <v>477</v>
-      </c>
       <c r="I357" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="358" spans="1:9">
       <c r="A358" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B358">
         <v>0</v>
       </c>
       <c r="C358" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D358">
         <v>0.82599999999999996</v>
@@ -9920,27 +9917,27 @@
         <v>43</v>
       </c>
       <c r="F358" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G358" t="s">
+        <v>478</v>
+      </c>
+      <c r="H358" t="s">
         <v>479</v>
       </c>
-      <c r="H358" t="s">
-        <v>480</v>
-      </c>
       <c r="I358" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="359" spans="1:9">
       <c r="A359" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B359">
         <v>0</v>
       </c>
       <c r="C359" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D359">
         <v>0.82599999999999996</v>
@@ -9949,24 +9946,24 @@
         <v>43</v>
       </c>
       <c r="F359" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H359" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I359" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="360" spans="1:9">
       <c r="A360" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B360">
         <v>0</v>
       </c>
       <c r="C360" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D360">
         <v>0.82599999999999996</v>
@@ -9975,18 +9972,18 @@
         <v>43</v>
       </c>
       <c r="F360" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H360" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I360" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="361" spans="1:9">
       <c r="A361" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B361">
         <v>0.2</v>
@@ -10001,21 +9998,21 @@
         <v>43</v>
       </c>
       <c r="F361" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G361" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H361" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I361" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="362" spans="1:9">
       <c r="A362" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B362">
         <v>0.17499999999999999</v>
@@ -10030,18 +10027,18 @@
         <v>43</v>
       </c>
       <c r="F362" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H362" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I362" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="363" spans="1:9">
       <c r="A363" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B363">
         <v>0.2</v>
@@ -10056,24 +10053,24 @@
         <v>43</v>
       </c>
       <c r="F363" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H363" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I363" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="364" spans="1:9">
       <c r="A364" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B364">
         <v>0.4</v>
       </c>
       <c r="C364" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D364">
         <v>0.79</v>
@@ -10082,27 +10079,27 @@
         <v>43</v>
       </c>
       <c r="F364" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G364" t="s">
+        <v>484</v>
+      </c>
+      <c r="H364" t="s">
         <v>485</v>
       </c>
-      <c r="H364" t="s">
-        <v>486</v>
-      </c>
       <c r="I364" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="365" spans="1:9">
       <c r="A365" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B365">
         <v>0.35</v>
       </c>
       <c r="C365" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D365">
         <v>0.79</v>
@@ -10111,24 +10108,24 @@
         <v>43</v>
       </c>
       <c r="F365" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H365" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I365" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="366" spans="1:9">
       <c r="A366" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B366">
         <v>0.3</v>
       </c>
       <c r="C366" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D366">
         <v>0.79</v>
@@ -10137,44 +10134,44 @@
         <v>43</v>
       </c>
       <c r="F366" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H366" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I366" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="367" spans="1:9">
       <c r="A367" t="s">
+        <v>488</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367" t="s">
+        <v>10</v>
+      </c>
+      <c r="D367" t="s">
+        <v>43</v>
+      </c>
+      <c r="E367" t="s">
+        <v>43</v>
+      </c>
+      <c r="F367" t="s">
+        <v>192</v>
+      </c>
+      <c r="G367" t="s">
         <v>489</v>
       </c>
-      <c r="B367">
-        <v>0</v>
-      </c>
-      <c r="C367" t="s">
-        <v>10</v>
-      </c>
-      <c r="D367" t="s">
-        <v>43</v>
-      </c>
-      <c r="E367" t="s">
-        <v>43</v>
-      </c>
-      <c r="F367" t="s">
-        <v>194</v>
-      </c>
-      <c r="G367" t="s">
-        <v>490</v>
-      </c>
       <c r="I367" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="368" spans="1:9">
       <c r="A368" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B368">
         <v>0</v>
@@ -10189,21 +10186,21 @@
         <v>43</v>
       </c>
       <c r="F368" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G368" t="s">
+        <v>491</v>
+      </c>
+      <c r="H368" t="s">
         <v>492</v>
       </c>
-      <c r="H368" t="s">
+      <c r="I368" t="s">
         <v>493</v>
-      </c>
-      <c r="I368" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="369" spans="1:9">
       <c r="A369" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B369">
         <v>0</v>
@@ -10218,15 +10215,15 @@
         <v>43</v>
       </c>
       <c r="F369" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I369" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="370" spans="1:9">
       <c r="A370" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B370">
         <v>7.4999999999999997E-2</v>
@@ -10241,44 +10238,44 @@
         <v>43</v>
       </c>
       <c r="F370" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I370" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="371" spans="1:9">
       <c r="A371" t="s">
+        <v>495</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371" t="s">
+        <v>10</v>
+      </c>
+      <c r="D371" t="s">
+        <v>43</v>
+      </c>
+      <c r="E371" t="s">
+        <v>43</v>
+      </c>
+      <c r="F371" t="s">
+        <v>192</v>
+      </c>
+      <c r="G371" t="s">
         <v>496</v>
       </c>
-      <c r="B371">
-        <v>0</v>
-      </c>
-      <c r="C371" t="s">
-        <v>10</v>
-      </c>
-      <c r="D371" t="s">
-        <v>43</v>
-      </c>
-      <c r="E371" t="s">
-        <v>43</v>
-      </c>
-      <c r="F371" t="s">
-        <v>194</v>
-      </c>
-      <c r="G371" t="s">
+      <c r="H371" t="s">
         <v>497</v>
       </c>
-      <c r="H371" t="s">
+      <c r="I371" t="s">
         <v>498</v>
-      </c>
-      <c r="I371" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="372" spans="1:9">
       <c r="A372" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B372">
         <v>0</v>
@@ -10293,15 +10290,15 @@
         <v>43</v>
       </c>
       <c r="F372" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I372" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="373" spans="1:9">
       <c r="A373" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B373">
         <v>0.05</v>
@@ -10316,15 +10313,15 @@
         <v>43</v>
       </c>
       <c r="F373" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I373" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="374" spans="1:9">
       <c r="A374" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B374">
         <v>0</v>
@@ -10339,15 +10336,15 @@
         <v>43</v>
       </c>
       <c r="F374" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I374" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="375" spans="1:9">
       <c r="A375" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B375">
         <v>0.1</v>
@@ -10362,21 +10359,21 @@
         <v>43</v>
       </c>
       <c r="F375" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I375" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="376" spans="1:9">
       <c r="A376" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B376">
         <v>0</v>
       </c>
       <c r="C376" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D376">
         <v>0.84299999999999997</v>
@@ -10385,21 +10382,21 @@
         <v>43</v>
       </c>
       <c r="F376" t="s">
+        <v>505</v>
+      </c>
+      <c r="G376" t="s">
         <v>506</v>
       </c>
-      <c r="G376" t="s">
+      <c r="H376" t="s">
         <v>507</v>
       </c>
-      <c r="H376" t="s">
+      <c r="I376" t="s">
         <v>508</v>
-      </c>
-      <c r="I376" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="377" spans="1:9">
       <c r="A377" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B377">
         <v>0</v>
@@ -10414,15 +10411,15 @@
         <v>43</v>
       </c>
       <c r="F377" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I377" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="378" spans="1:9">
       <c r="A378" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B378">
         <v>0.1</v>
@@ -10437,18 +10434,18 @@
         <v>43</v>
       </c>
       <c r="F378" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G378" t="s">
+        <v>511</v>
+      </c>
+      <c r="I378" t="s">
         <v>512</v>
-      </c>
-      <c r="I378" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="379" spans="1:9">
       <c r="A379" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B379">
         <v>0.05</v>
@@ -10463,21 +10460,21 @@
         <v>0.73</v>
       </c>
       <c r="F379" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G379" t="s">
+        <v>514</v>
+      </c>
+      <c r="H379" t="s">
         <v>515</v>
       </c>
-      <c r="H379" t="s">
-        <v>516</v>
-      </c>
       <c r="I379" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="380" spans="1:9">
       <c r="A380" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B380">
         <v>0.05</v>
@@ -10492,21 +10489,21 @@
         <v>0.77</v>
       </c>
       <c r="F380" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G380" t="s">
+        <v>516</v>
+      </c>
+      <c r="H380" t="s">
         <v>517</v>
       </c>
-      <c r="H380" t="s">
-        <v>518</v>
-      </c>
       <c r="I380" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="381" spans="1:9">
       <c r="A381" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -10521,21 +10518,21 @@
         <v>43</v>
       </c>
       <c r="F381" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G381" t="s">
+        <v>519</v>
+      </c>
+      <c r="H381" t="s">
         <v>520</v>
       </c>
-      <c r="H381" t="s">
+      <c r="I381" t="s">
         <v>521</v>
-      </c>
-      <c r="I381" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="382" spans="1:9">
       <c r="A382" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B382">
         <v>0.1</v>
@@ -10550,21 +10547,21 @@
         <v>43</v>
       </c>
       <c r="F382" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G382" t="s">
+        <v>523</v>
+      </c>
+      <c r="H382" t="s">
         <v>524</v>
       </c>
-      <c r="H382" t="s">
-        <v>525</v>
-      </c>
       <c r="I382" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="383" spans="1:9">
       <c r="A383" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B383">
         <v>0.05</v>
@@ -10579,21 +10576,21 @@
         <v>43</v>
       </c>
       <c r="F383" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G383" t="s">
+        <v>525</v>
+      </c>
+      <c r="H383" t="s">
         <v>526</v>
       </c>
-      <c r="H383" t="s">
+      <c r="I383" t="s">
         <v>527</v>
-      </c>
-      <c r="I383" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="384" spans="1:9">
       <c r="A384" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B384">
         <v>7.4999999999999997E-2</v>
@@ -10608,12 +10605,12 @@
         <v>43</v>
       </c>
       <c r="F384" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="385" spans="1:6">
       <c r="A385" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B385">
         <v>0.1</v>
@@ -10628,12 +10625,12 @@
         <v>43</v>
       </c>
       <c r="F385" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B386">
         <v>0.05</v>
@@ -10648,12 +10645,12 @@
         <v>43</v>
       </c>
       <c r="F386" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="387" spans="1:6">
       <c r="A387" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B387">
         <v>7.4999999999999997E-2</v>
@@ -10668,12 +10665,12 @@
         <v>43</v>
       </c>
       <c r="F387" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B388">
         <v>0.1</v>
@@ -10688,12 +10685,12 @@
         <v>43</v>
       </c>
       <c r="F388" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="389" spans="1:6">
       <c r="A389" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B389">
         <v>0</v>
@@ -10708,12 +10705,12 @@
         <v>43</v>
       </c>
       <c r="F389" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="390" spans="1:6">
       <c r="A390" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B390">
         <v>0</v>
@@ -10728,12 +10725,12 @@
         <v>43</v>
       </c>
       <c r="F390" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="391" spans="1:6">
       <c r="A391" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B391">
         <v>0</v>
@@ -10748,12 +10745,12 @@
         <v>43</v>
       </c>
       <c r="F391" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="392" spans="1:6">
       <c r="A392" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -10768,12 +10765,12 @@
         <v>43</v>
       </c>
       <c r="F392" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="393" spans="1:6">
       <c r="A393" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B393">
         <v>0</v>
@@ -10788,12 +10785,12 @@
         <v>43</v>
       </c>
       <c r="F393" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="394" spans="1:6">
       <c r="A394" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B394">
         <v>0</v>
@@ -10808,12 +10805,12 @@
         <v>43</v>
       </c>
       <c r="F394" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="395" spans="1:6">
       <c r="A395" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B395">
         <v>0</v>
@@ -10828,12 +10825,12 @@
         <v>43</v>
       </c>
       <c r="F395" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="396" spans="1:6">
       <c r="A396" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B396">
         <v>0</v>
@@ -10848,12 +10845,12 @@
         <v>43</v>
       </c>
       <c r="F396" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="397" spans="1:6">
       <c r="A397" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B397">
         <v>0</v>
@@ -10868,12 +10865,12 @@
         <v>43</v>
       </c>
       <c r="F397" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B398">
         <v>0</v>
@@ -10888,12 +10885,12 @@
         <v>43</v>
       </c>
       <c r="F398" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B399">
         <v>0</v>
@@ -10908,12 +10905,12 @@
         <v>43</v>
       </c>
       <c r="F399" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B400">
         <v>0</v>
@@ -10928,12 +10925,12 @@
         <v>43</v>
       </c>
       <c r="F400" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="401" spans="1:9">
       <c r="A401" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B401">
         <v>0.1</v>
@@ -10948,21 +10945,21 @@
         <v>43</v>
       </c>
       <c r="F401" t="s">
+        <v>545</v>
+      </c>
+      <c r="G401" t="s">
         <v>546</v>
       </c>
-      <c r="G401" t="s">
+      <c r="H401" t="s">
         <v>547</v>
       </c>
-      <c r="H401" t="s">
+      <c r="I401" t="s">
         <v>548</v>
-      </c>
-      <c r="I401" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="402" spans="1:9">
       <c r="A402" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B402">
         <v>0.1</v>
@@ -10977,12 +10974,12 @@
         <v>43</v>
       </c>
       <c r="F402" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="403" spans="1:9">
       <c r="A403" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B403">
         <v>0.1</v>
@@ -10997,12 +10994,12 @@
         <v>43</v>
       </c>
       <c r="F403" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="404" spans="1:9">
       <c r="A404" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B404">
         <v>0.1</v>
@@ -11020,18 +11017,18 @@
         <v>43</v>
       </c>
       <c r="G404" t="s">
+        <v>552</v>
+      </c>
+      <c r="H404" t="s">
         <v>553</v>
       </c>
-      <c r="H404" t="s">
+      <c r="I404" t="s">
         <v>554</v>
-      </c>
-      <c r="I404" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="405" spans="1:9">
       <c r="A405" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B405">
         <v>0</v>
@@ -11049,12 +11046,12 @@
         <v>43</v>
       </c>
       <c r="I405" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="406" spans="1:9">
       <c r="A406" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B406">
         <v>0.01</v>
@@ -11074,7 +11071,7 @@
     </row>
     <row r="407" spans="1:9">
       <c r="A407" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B407">
         <v>0.02</v>
@@ -11094,7 +11091,7 @@
     </row>
     <row r="408" spans="1:9">
       <c r="A408" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B408">
         <v>0.05</v>
@@ -11114,7 +11111,7 @@
     </row>
     <row r="409" spans="1:9">
       <c r="A409" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B409">
         <v>0.1</v>
@@ -11134,7 +11131,7 @@
     </row>
     <row r="410" spans="1:9">
       <c r="A410" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -11152,12 +11149,12 @@
         <v>43</v>
       </c>
       <c r="I410" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="411" spans="1:9">
       <c r="A411" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B411">
         <v>0</v>
@@ -11177,7 +11174,7 @@
     </row>
     <row r="412" spans="1:9">
       <c r="A412" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B412">
         <v>0</v>
@@ -11197,7 +11194,7 @@
     </row>
     <row r="413" spans="1:9">
       <c r="A413" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B413">
         <v>0</v>
